--- a/tut05/output/0501CS15.xlsx
+++ b/tut05/output/0501CS15.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.877551020408164</v>
+        <v>7.88</v>
       </c>
       <c r="C6" t="n">
-        <v>7.431818181818182</v>
+        <v>7.43</v>
       </c>
       <c r="D6" t="n">
-        <v>7.674418604651163</v>
+        <v>7.67</v>
       </c>
       <c r="E6" t="n">
-        <v>7.787234042553192</v>
+        <v>7.79</v>
       </c>
       <c r="F6" t="n">
-        <v>7.761904761904762</v>
+        <v>7.76</v>
       </c>
       <c r="G6" t="n">
-        <v>7.875</v>
+        <v>7.88</v>
       </c>
       <c r="H6" t="n">
-        <v>8.268292682926829</v>
+        <v>8.27</v>
       </c>
       <c r="I6" t="n">
         <v>7.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.877551020408164</v>
+        <v>7.88</v>
       </c>
       <c r="C8" t="n">
-        <v>7.666666666666667</v>
+        <v>7.67</v>
       </c>
       <c r="D8" t="n">
-        <v>7.669117647058823</v>
+        <v>7.67</v>
       </c>
       <c r="E8" t="n">
-        <v>7.699453551912568</v>
+        <v>7.7</v>
       </c>
       <c r="F8" t="n">
-        <v>7.711111111111111</v>
+        <v>7.71</v>
       </c>
       <c r="G8" t="n">
-        <v>7.735849056603773</v>
+        <v>7.74</v>
       </c>
       <c r="H8" t="n">
-        <v>7.80718954248366</v>
+        <v>7.81</v>
       </c>
       <c r="I8" t="n">
-        <v>7.812138728323699</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
